--- a/top_250_data.xlsx
+++ b/top_250_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,10 +651,8 @@
           <t>Come and See</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1985</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -668,10 +666,8 @@
           <t>Samuel</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B16" t="n">
+        <v>2024</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -685,10 +681,8 @@
           <t>Over the Garden Wall</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B17" t="n">
+        <v>2014</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -702,10 +696,8 @@
           <t>Fishmans: Otokotachi no Wakare 98.12.28 @ Akasaka Blitz</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="B18" t="n">
+        <v>2005</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -719,10 +711,8 @@
           <t>Planet Earth</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B19" t="n">
+        <v>2006</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -736,10 +726,8 @@
           <t>National Theatre Live: Fleabag</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B20" t="n">
+        <v>2019</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -753,10 +741,8 @@
           <t>Twin Peaks: The Return</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B21" t="n">
+        <v>2017</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -770,10 +756,8 @@
           <t>Seven Samurai</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1954</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -787,10 +771,8 @@
           <t>The Human Condition III: A Soldier's Prayer</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
+      <c r="B23" t="n">
+        <v>1961</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -804,10 +786,8 @@
           <t>Avatar Spirits</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B24" t="n">
+        <v>2010</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -821,10 +801,8 @@
           <t>High and Low</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
+      <c r="B25" t="n">
+        <v>1963</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -838,10 +816,8 @@
           <t>One Piece Fan Letter</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B26" t="n">
+        <v>2024</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -855,10 +831,8 @@
           <t>Dekalog</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="B27" t="n">
+        <v>1989</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -872,10 +846,8 @@
           <t>Vinland Saga</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B28" t="n">
+        <v>2019</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -889,10 +861,8 @@
           <t>The Godfather Part II</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="B29" t="n">
+        <v>1974</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -906,10 +876,8 @@
           <t>Berserk</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1997</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -923,10 +891,8 @@
           <t>Chernobyl</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B31" t="n">
+        <v>2019</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -940,10 +906,8 @@
           <t>Ping Pong the Animation</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2014</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -957,10 +921,8 @@
           <t>Nirvana: Unplugged In New York</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="B33" t="n">
+        <v>1993</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -974,10 +936,8 @@
           <t>National Theatre Live: Prima Facie</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B34" t="n">
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -991,10 +951,8 @@
           <t>No Other Land</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B35" t="n">
+        <v>2024</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1008,10 +966,8 @@
           <t>Renaissance: A Film by Beyoncé</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2023</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1025,10 +981,8 @@
           <t>When They See Us</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B37" t="n">
+        <v>2019</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1042,10 +996,8 @@
           <t>The Shawshank Redemption</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="B38" t="n">
+        <v>1994</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1059,10 +1011,8 @@
           <t>Attack on Titan The Final Chapters: Special 2</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B39" t="n">
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1076,10 +1026,8 @@
           <t>The Pop Out: Ken &amp; Friends</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B40" t="n">
+        <v>2024</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1093,10 +1041,8 @@
           <t>City of God</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="B41" t="n">
+        <v>2002</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1110,10 +1056,8 @@
           <t>Andor Season 2 | A Special Look</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="B42" t="n">
+        <v>2025</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1127,10 +1071,8 @@
           <t>Night and Fog</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
+      <c r="B43" t="n">
+        <v>1956</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1144,10 +1086,8 @@
           <t>Tapping the Wire</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="B44" t="n">
+        <v>2007</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1161,10 +1101,8 @@
           <t>Parasite</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B45" t="n">
+        <v>2019</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1178,10 +1116,8 @@
           <t>Attack on Titan The Final Chapters: Special 1</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B46" t="n">
+        <v>2023</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1195,10 +1131,8 @@
           <t>Yi Yi</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B47" t="n">
+        <v>2000</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1212,10 +1146,8 @@
           <t>Attack on Titan: THE LAST ATTACK</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B48" t="n">
+        <v>2024</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1229,10 +1161,8 @@
           <t>The Beatles: Get Back</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B49" t="n">
+        <v>2021</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1246,10 +1176,8 @@
           <t>Neon Genesis Evangelion</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="B50" t="n">
+        <v>1995</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1263,10 +1191,8 @@
           <t>Frieren: Beyond Journey's End</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B51" t="n">
+        <v>2023</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1280,10 +1206,8 @@
           <t>The Godfather</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
+      <c r="B52" t="n">
+        <v>1972</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1297,10 +1221,8 @@
           <t>NANA</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B53" t="n">
+        <v>2006</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1314,10 +1236,8 @@
           <t>Blue Planet II</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B54" t="n">
+        <v>2017</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1331,10 +1251,8 @@
           <t>Alice In Chains: MTV Unplugged</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="B55" t="n">
+        <v>1996</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1348,10 +1266,8 @@
           <t>Schindler's List</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="B56" t="n">
+        <v>1993</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1365,10 +1281,8 @@
           <t>The Human Condition I: No Greater Love</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
+      <c r="B57" t="n">
+        <v>1959</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1382,10 +1296,8 @@
           <t>Fanny and Alexander</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="B58" t="n">
+        <v>1984</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1399,10 +1311,8 @@
           <t>Paris Is Burning</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="B59" t="n">
+        <v>1990</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1416,10 +1326,8 @@
           <t>The Lord of the Rings: The Return of the King</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="B60" t="n">
+        <v>2003</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1433,10 +1341,8 @@
           <t>Attack on Titan: Chronicle</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B61" t="n">
+        <v>2020</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1450,10 +1356,8 @@
           <t>Scavengers Reign</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B62" t="n">
+        <v>2023</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1467,10 +1371,8 @@
           <t>Jeff Buckley: Live in Chicago</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B63" t="n">
+        <v>2000</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1484,10 +1386,8 @@
           <t>Shoah</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="B64" t="n">
+        <v>1985</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1501,10 +1401,8 @@
           <t>Johanne Sacreblu</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="B65" t="n">
+        <v>2025</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1518,10 +1416,8 @@
           <t>Ikiru</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
+      <c r="B66" t="n">
+        <v>1952</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1535,10 +1431,8 @@
           <t>Cosmos: A Personal Voyage</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="B67" t="n">
+        <v>1980</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1552,10 +1446,8 @@
           <t>Nirvana the Band the Show</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="B68" t="n">
+        <v>2007</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1569,10 +1461,8 @@
           <t>DJ Mehdi: Made in France</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B69" t="n">
+        <v>2024</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1586,10 +1476,8 @@
           <t>Ran</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="B70" t="n">
+        <v>1985</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1603,10 +1491,8 @@
           <t>La Haine</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="B71" t="n">
+        <v>1995</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1620,10 +1506,8 @@
           <t>A Brighter Summer Day</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="B72" t="n">
+        <v>1991</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1637,10 +1521,8 @@
           <t>The Good, the Bad and the Ugly</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="B73" t="n">
+        <v>1966</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1654,10 +1536,8 @@
           <t>25th Anniversary Studio Ghibli Concert</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B74" t="n">
+        <v>2008</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1671,10 +1551,8 @@
           <t>Reply 1988</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B75" t="n">
+        <v>2015</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1688,10 +1566,8 @@
           <t>One Crazy Summer: A Look Back at Gravity Falls</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B76" t="n">
+        <v>2018</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1705,10 +1581,8 @@
           <t>Nathan for You: Finding Frances</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B77" t="n">
+        <v>2017</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1722,10 +1596,8 @@
           <t>Adventure Time</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="B78" t="n">
+        <v>2007</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1739,10 +1611,8 @@
           <t>MTV Unplugged: Fiona Apple</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B79" t="n">
+        <v>1997</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1756,10 +1626,8 @@
           <t>Samurai Champloo</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="B80" t="n">
+        <v>2004</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1773,10 +1641,8 @@
           <t>Our Planet</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B81" t="n">
+        <v>2019</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1790,10 +1656,8 @@
           <t>Absolutely</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B82" t="n">
+        <v>2021</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1807,10 +1671,8 @@
           <t>As I Was Moving Ahead, Occasionally I Saw Brief Glimpses of Beauty</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B83" t="n">
+        <v>2000</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1824,10 +1686,8 @@
           <t>The World at War</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
+      <c r="B84" t="n">
+        <v>1973</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1841,10 +1701,8 @@
           <t>Le Trou</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
+      <c r="B85" t="n">
+        <v>1960</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1858,10 +1716,8 @@
           <t>Folklore: The Long Pond Studio Sessions</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B86" t="n">
+        <v>2020</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1875,10 +1731,8 @@
           <t>The Strokes: MTV $2 Bill Concert</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="B87" t="n">
+        <v>2002</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1892,10 +1746,8 @@
           <t>Cinema Paradiso</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="B88" t="n">
+        <v>1988</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1909,10 +1761,8 @@
           <t>Taylor Swift: Reputation Stadium Tour</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B89" t="n">
+        <v>2018</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1926,10 +1776,8 @@
           <t>Autumn Sonata</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
+      <c r="B90" t="n">
+        <v>1978</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1943,10 +1791,8 @@
           <t>The Dark Knight</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B91" t="n">
+        <v>2008</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1960,10 +1806,8 @@
           <t>The Tatami Galaxy</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B92" t="n">
+        <v>2010</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1977,10 +1821,8 @@
           <t>I May Destroy You</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B93" t="n">
+        <v>2020</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1994,10 +1836,8 @@
           <t>The Nightman Cometh: Live</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B94" t="n">
+        <v>2009</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2011,10 +1851,8 @@
           <t>Arcane: Bridging the Rift</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B95" t="n">
+        <v>2022</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2028,10 +1866,8 @@
           <t>Grave of the Fireflies</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="B96" t="n">
+        <v>1988</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2045,10 +1881,8 @@
           <t>Neon Genesis Evangelion: The End of Evangelion</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B97" t="n">
+        <v>1997</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2062,10 +1896,8 @@
           <t>VOLCANO</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B98" t="n">
+        <v>2023</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2079,10 +1911,8 @@
           <t>The History of the Seattle Mariners</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B99" t="n">
+        <v>2020</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2096,10 +1926,8 @@
           <t>O.J.: Made in America</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B100" t="n">
+        <v>2016</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2113,10 +1941,8 @@
           <t>GoodFellas</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="B101" t="n">
+        <v>1990</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2130,10 +1956,8 @@
           <t>BLUE EYE SAMURAI</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B102" t="n">
+        <v>2023</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2147,10 +1971,8 @@
           <t>Kendrick Lamar Live: The Big Steppers Tour</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B103" t="n">
+        <v>2022</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2164,10 +1986,8 @@
           <t>Woman in the Dunes</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
+      <c r="B104" t="n">
+        <v>1964</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2181,10 +2001,8 @@
           <t>The Penguin</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B105" t="n">
+        <v>2024</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2198,10 +2016,8 @@
           <t>The Vietnam War</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B106" t="n">
+        <v>2017</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2215,10 +2031,8 @@
           <t>There Will Be Blood</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="B107" t="n">
+        <v>2007</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2232,10 +2046,8 @@
           <t>Okupas</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B108" t="n">
+        <v>2000</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2249,10 +2061,8 @@
           <t>The 1975 'At Their Very Best' Live from Madison Square Garden</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B109" t="n">
+        <v>2022</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2266,10 +2076,8 @@
           <t>Spirited Away</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="B110" t="n">
+        <v>2001</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2283,10 +2091,8 @@
           <t>Paths of Glory</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
+      <c r="B111" t="n">
+        <v>1957</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2300,10 +2106,8 @@
           <t>The Human Condition II: Road to Eternity</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
+      <c r="B112" t="n">
+        <v>1959</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2317,10 +2121,8 @@
           <t>The Last Dance</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B113" t="n">
+        <v>2020</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2334,10 +2136,8 @@
           <t>Madonna: The Celebration Tour in Rio</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B114" t="n">
+        <v>2024</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2351,10 +2151,8 @@
           <t>Portishead: Roseland New York</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="B115" t="n">
+        <v>1998</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2368,10 +2166,8 @@
           <t>Mario Puzo's The Godfather: The Complete Novel for Television</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
+      <c r="B116" t="n">
+        <v>1977</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2385,10 +2181,8 @@
           <t>Andrei Rublev</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="B117" t="n">
+        <v>1966</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2402,10 +2196,8 @@
           <t>Apocalypse Now</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
+      <c r="B118" t="n">
+        <v>1979</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2419,10 +2211,8 @@
           <t>The Apartment</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
+      <c r="B119" t="n">
+        <v>1960</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2436,10 +2226,8 @@
           <t>history of the entire world, i guess</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B120" t="n">
+        <v>2017</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2453,10 +2241,8 @@
           <t>Tokyo Story</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
+      <c r="B121" t="n">
+        <v>1953</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2470,10 +2256,8 @@
           <t>Veneno</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B122" t="n">
+        <v>2020</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2487,10 +2271,8 @@
           <t>Sunset Boulevard</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
+      <c r="B123" t="n">
+        <v>1950</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2504,10 +2286,8 @@
           <t>Panic! at the Disco: Live in Denver</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B124" t="n">
+        <v>2006</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2521,10 +2301,8 @@
           <t>Planet Earth III</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B125" t="n">
+        <v>2023</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2538,10 +2316,8 @@
           <t>Brass Eye</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B126" t="n">
+        <v>1997</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2555,10 +2331,8 @@
           <t>My Chemical Romance: The Black Parade Is Dead!</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B127" t="n">
+        <v>2008</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2572,10 +2346,8 @@
           <t>The Cranes Are Flying</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
+      <c r="B128" t="n">
+        <v>1957</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2589,10 +2361,8 @@
           <t>National Theatre Live: Angels In America — Part Two: Perestroika</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B129" t="n">
+        <v>2017</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2606,10 +2376,8 @@
           <t>Shōgun</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B130" t="n">
+        <v>2024</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2623,10 +2391,8 @@
           <t>The Passion of Joan of Arc</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
+      <c r="B131" t="n">
+        <v>1928</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2640,10 +2406,8 @@
           <t>Where the Light Is: John Mayer Live in Los Angeles</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B132" t="n">
+        <v>2008</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2657,10 +2421,8 @@
           <t>Scenes from a Marriage</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
+      <c r="B133" t="n">
+        <v>1973</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2674,10 +2436,8 @@
           <t>Incendies</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B134" t="n">
+        <v>2010</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2691,10 +2451,8 @@
           <t>The Trial</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B135" t="n">
+        <v>2017</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2708,10 +2466,8 @@
           <t>Portrait of a Lady on Fire</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B136" t="n">
+        <v>2019</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2725,10 +2481,8 @@
           <t>Whiplash</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B137" t="n">
+        <v>2014</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2742,10 +2496,8 @@
           <t>Fanny and Alexander</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="B138" t="n">
+        <v>1982</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2759,10 +2511,8 @@
           <t>Mishima: A Life in Four Chapters</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="B139" t="n">
+        <v>1985</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2776,10 +2526,8 @@
           <t>Six Feet Under: In Memoriam</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="B140" t="n">
+        <v>2005</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2793,10 +2541,8 @@
           <t>Sherlock: The Reichenbach Fall</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B141" t="n">
+        <v>2012</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2810,10 +2556,8 @@
           <t>Spider-Man: Across the Spider-Verse</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B142" t="n">
+        <v>2023</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2827,10 +2571,8 @@
           <t>Close-Up</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="B143" t="n">
+        <v>1990</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2844,10 +2586,8 @@
           <t>The Battle of Algiers</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="B144" t="n">
+        <v>1966</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2861,10 +2601,8 @@
           <t>Interstellar</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B145" t="n">
+        <v>2014</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2878,10 +2616,8 @@
           <t>National Theatre Live: Angels In America — Part One: Millennium Approaches</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B146" t="n">
+        <v>2017</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2895,10 +2631,8 @@
           <t>Memories of Murder</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="B147" t="n">
+        <v>2003</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2912,10 +2646,8 @@
           <t>Serial Experiments Lain</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="B148" t="n">
+        <v>1998</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2929,10 +2661,8 @@
           <t>Steins;Gate</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B149" t="n">
+        <v>2011</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2946,10 +2676,8 @@
           <t>The Beatles: Get Back - The Rooftop Concert</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B150" t="n">
+        <v>2022</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2963,10 +2691,8 @@
           <t>The Ascent</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
+      <c r="B151" t="n">
+        <v>1977</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2980,10 +2706,8 @@
           <t>The Lord of the Rings: The Two Towers</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="B152" t="n">
+        <v>2002</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2997,10 +2721,8 @@
           <t>The Grand Tour: One For The Road</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B153" t="n">
+        <v>2024</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3014,10 +2736,8 @@
           <t>The 5 Seconds of Summer Show</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B154" t="n">
+        <v>2021</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3031,10 +2751,8 @@
           <t>Smiling Friends</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B155" t="n">
+        <v>2020</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3048,10 +2766,8 @@
           <t>Garth Marenghi's Darkplace</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="B156" t="n">
+        <v>2004</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3065,10 +2781,8 @@
           <t>It's a Wonderful Life</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1946</t>
-        </is>
+      <c r="B157" t="n">
+        <v>1946</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3082,10 +2796,8 @@
           <t>I Am Cuba</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
+      <c r="B158" t="n">
+        <v>1964</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3099,10 +2811,8 @@
           <t>Normal People</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B159" t="n">
+        <v>2020</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3116,10 +2826,8 @@
           <t>Hoop Dreams</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="B160" t="n">
+        <v>1994</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3133,10 +2841,8 @@
           <t>Laufey's A Night at the Symphony: Hollywood Bowl</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B161" t="n">
+        <v>2024</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3150,10 +2856,8 @@
           <t>Sansho the Bailiff</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
+      <c r="B162" t="n">
+        <v>1954</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3167,10 +2871,8 @@
           <t>Revolutionary Girl Utena</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B163" t="n">
+        <v>1997</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3184,10 +2886,8 @@
           <t>A Very Sunny Christmas</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="B164" t="n">
+        <v>2009</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3201,10 +2901,8 @@
           <t>Move to Heaven</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B165" t="n">
+        <v>2021</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3218,10 +2916,8 @@
           <t>Stalker</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
+      <c r="B166" t="n">
+        <v>1979</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3235,10 +2931,8 @@
           <t>Baseball</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="B167" t="n">
+        <v>1994</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3252,10 +2946,8 @@
           <t>Captain Ahab: The Story of Dave Stieb</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B168" t="n">
+        <v>2022</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3269,10 +2961,8 @@
           <t>James Acaster: Cold Lasagne Hate Myself 1999</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B169" t="n">
+        <v>2020</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3286,10 +2976,8 @@
           <t>Spider-Man: Into the Spider-Verse</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B170" t="n">
+        <v>2018</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3303,10 +2991,8 @@
           <t>Twenty One Pilots: Livestream Experience</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B171" t="n">
+        <v>2021</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3320,10 +3006,8 @@
           <t>The Empire Strikes Back</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="B172" t="n">
+        <v>1980</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3337,10 +3021,8 @@
           <t>O Auto da Compadecida</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="B173" t="n">
+        <v>1999</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3354,10 +3036,8 @@
           <t>Red Hot Chili Peppers: Live at Slane Castle</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="B174" t="n">
+        <v>2003</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3371,10 +3051,8 @@
           <t>BTS: Yet to Come in Cinemas</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B175" t="n">
+        <v>2023</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3388,10 +3066,8 @@
           <t>Weak Hero</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B176" t="n">
+        <v>2022</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3405,10 +3081,8 @@
           <t>My Chemical Romance: Life on the Murder Scene</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B177" t="n">
+        <v>2006</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3422,10 +3096,8 @@
           <t>The Red Shoes</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>1948</t>
-        </is>
+      <c r="B178" t="n">
+        <v>1948</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3439,10 +3111,8 @@
           <t>Gintama: The Very Final</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B179" t="n">
+        <v>2021</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3456,10 +3126,8 @@
           <t>Making The Leftovers</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B180" t="n">
+        <v>2014</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3473,10 +3141,8 @@
           <t>Do the Right Thing</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="B181" t="n">
+        <v>1989</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3490,10 +3156,8 @@
           <t>A Woman Under the Influence</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="B182" t="n">
+        <v>1974</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3507,10 +3171,8 @@
           <t>Tear Along the Dotted Line</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="B183" t="n">
+        <v>2021</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3524,10 +3186,8 @@
           <t>The Handmaiden</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="B184" t="n">
+        <v>2016</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3541,10 +3201,8 @@
           <t>Persona</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="B185" t="n">
+        <v>1966</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3558,10 +3216,8 @@
           <t>The Act of Killing</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B186" t="n">
+        <v>2012</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3575,10 +3231,8 @@
           <t>Attack on Titan: The Roar of Awakening</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B187" t="n">
+        <v>2018</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3592,10 +3246,8 @@
           <t>The Office Retrospective</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="B188" t="n">
+        <v>2013</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3609,10 +3261,8 @@
           <t>Sassy the Sasquatch</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B189" t="n">
+        <v>2022</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3626,10 +3276,8 @@
           <t>Dune: Part Two</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B190" t="n">
+        <v>2024</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3643,10 +3291,8 @@
           <t>Barry Lyndon</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="B191" t="n">
+        <v>1975</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3660,10 +3306,8 @@
           <t>The Pianist</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="B192" t="n">
+        <v>2002</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3677,10 +3321,8 @@
           <t>Pink Floyd: Live at Pompeii</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
+      <c r="B193" t="n">
+        <v>1972</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3694,10 +3336,8 @@
           <t>Hannibal: This Is My Design</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="B194" t="n">
+        <v>2014</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3711,10 +3351,8 @@
           <t>Falsettos</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B195" t="n">
+        <v>2017</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3728,10 +3366,8 @@
           <t>Nights of Cabiria</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
+      <c r="B196" t="n">
+        <v>1957</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3745,10 +3381,8 @@
           <t>National Theatre Live: Vanya</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B197" t="n">
+        <v>2024</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3762,10 +3396,8 @@
           <t>Once Upon a Time in the West</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
+      <c r="B198" t="n">
+        <v>1968</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -3779,10 +3411,8 @@
           <t>The Clock</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B199" t="n">
+        <v>2010</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -3796,10 +3426,8 @@
           <t>The Blue Planet</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="B200" t="n">
+        <v>2001</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3813,10 +3441,8 @@
           <t>Bluey: The Sign</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B201" t="n">
+        <v>2024</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3830,10 +3456,8 @@
           <t>Perfect Blue</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B202" t="n">
+        <v>1997</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3847,10 +3471,8 @@
           <t>Nobody Knows</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="B203" t="n">
+        <v>2004</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3864,10 +3486,8 @@
           <t>In the Mood for Love</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B204" t="n">
+        <v>2000</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3881,10 +3501,8 @@
           <t>Tie Xi Qu: West of the Tracks</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="B205" t="n">
+        <v>2002</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -3898,10 +3516,8 @@
           <t>The Midnight Gospel</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B206" t="n">
+        <v>2020</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3915,10 +3531,8 @@
           <t>Paris, Texas</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="B207" t="n">
+        <v>1984</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3932,10 +3546,8 @@
           <t>Tyler, The Creator - Live: Call Me If You Get Lost</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B208" t="n">
+        <v>2022</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3949,10 +3561,8 @@
           <t>Decalogue I</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="B209" t="n">
+        <v>1989</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3966,10 +3576,8 @@
           <t>BTS: Permission to Dance on Stage - LA</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B210" t="n">
+        <v>2022</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3983,10 +3591,8 @@
           <t>Pearl Jam: MTV Unplugged</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="B211" t="n">
+        <v>1992</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4000,10 +3606,8 @@
           <t>My Mister</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B212" t="n">
+        <v>2018</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4017,10 +3621,8 @@
           <t>Princess Mononoke</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B213" t="n">
+        <v>1997</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4034,10 +3636,8 @@
           <t>BTS Permission to Dance On Stage - Seoul: Live Viewing</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B214" t="n">
+        <v>2022</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4051,10 +3651,8 @@
           <t>Witness for the Prosecution</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
+      <c r="B215" t="n">
+        <v>1957</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4068,10 +3666,8 @@
           <t>Nirvana: Live at the Paramount</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B216" t="n">
+        <v>2011</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4085,10 +3681,8 @@
           <t>Red Beard</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
+      <c r="B217" t="n">
+        <v>1965</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4102,10 +3696,8 @@
           <t>Lawrence of Arabia</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
+      <c r="B218" t="n">
+        <v>1962</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4119,10 +3711,8 @@
           <t>Adventure Time: Stakes</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B219" t="n">
+        <v>2015</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4136,10 +3726,8 @@
           <t>Love Exposure</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B220" t="n">
+        <v>2008</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4153,10 +3741,8 @@
           <t>Jam</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="B221" t="n">
+        <v>2000</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4170,10 +3756,8 @@
           <t>Eternity and a Day</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="B222" t="n">
+        <v>1998</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4187,10 +3771,8 @@
           <t>The Lord of the Rings: The Fellowship of the Ring</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="B223" t="n">
+        <v>2001</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4204,10 +3786,8 @@
           <t>Sherlock Jr.</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>1924</t>
-        </is>
+      <c r="B224" t="n">
+        <v>1924</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4221,10 +3801,8 @@
           <t>Twinkling Watermelon</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B225" t="n">
+        <v>2023</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4238,10 +3816,8 @@
           <t>Oldboy</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="B226" t="n">
+        <v>2003</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4255,10 +3831,8 @@
           <t>Life Is Beautiful</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="B227" t="n">
+        <v>1997</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4272,10 +3846,8 @@
           <t>The Day Today</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="B228" t="n">
+        <v>1994</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4289,10 +3861,8 @@
           <t>Scenes from a Marriage</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="B229" t="n">
+        <v>1974</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4306,10 +3876,8 @@
           <t>This Is Going to Hurt</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B230" t="n">
+        <v>2022</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4323,10 +3891,8 @@
           <t>SUGA: Road to D-DAY</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B231" t="n">
+        <v>2023</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4340,10 +3906,8 @@
           <t>Beyoncé Bowl</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="B232" t="n">
+        <v>2024</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4357,10 +3921,8 @@
           <t>Satantango</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="B233" t="n">
+        <v>1994</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4374,10 +3936,8 @@
           <t>Dear Zachary: A Letter to a Son About His Father</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="B234" t="n">
+        <v>2008</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4391,10 +3951,8 @@
           <t>Adventure Time: Distant Lands</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="B235" t="n">
+        <v>2020</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4408,10 +3966,8 @@
           <t>The Beatles Anthology</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="B236" t="n">
+        <v>1995</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -4425,10 +3981,8 @@
           <t>Harry Styles: Behind the Album - The Performances</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B237" t="n">
+        <v>2017</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4442,10 +3996,8 @@
           <t>Seven Worlds, One Planet</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B238" t="n">
+        <v>2019</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4459,10 +4011,8 @@
           <t>Death Note</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B239" t="n">
+        <v>2006</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4476,10 +4026,8 @@
           <t>For Sama</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="B240" t="n">
+        <v>2019</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4493,10 +4041,8 @@
           <t>Rear Window</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
+      <c r="B241" t="n">
+        <v>1954</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4510,10 +4056,8 @@
           <t>James Acaster: Repertoire</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="B242" t="n">
+        <v>2018</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4527,10 +4071,8 @@
           <t>It's Such a Beautiful Day</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="B243" t="n">
+        <v>2012</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4544,10 +4086,8 @@
           <t>Harry Styles: Behind the Album</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="B244" t="n">
+        <v>2017</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4561,10 +4101,8 @@
           <t>Kill Bill: The Whole Bloody Affair</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="B245" t="n">
+        <v>2006</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -4578,10 +4116,8 @@
           <t>Where Is the Friend's House?</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="B246" t="n">
+        <v>1987</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4595,10 +4131,8 @@
           <t>Next to Normal</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="B247" t="n">
+        <v>2025</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4612,10 +4146,8 @@
           <t>Taylor Swift: Speak Now World Tour Live</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B248" t="n">
+        <v>2011</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4629,10 +4161,8 @@
           <t>A Separation</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="B249" t="n">
+        <v>2011</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4646,10 +4176,8 @@
           <t>boygenius: the film</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B250" t="n">
+        <v>2023</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4663,14 +4191,44 @@
           <t>Game of Thrones The IMAX Experience</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="B251" t="n">
+        <v>2015</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
           <t>https://letterboxd.com/film/game-of-thrones-the-imax-experience/</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Paper Moon</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/paper-moon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Red Velvet Happiness Diary : My Dear, ReVe1uv in Cinemas</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/red-velvet-happiness-diary-my-dear-reve1uv/</t>
         </is>
       </c>
     </row>

--- a/top_250_data.xlsx
+++ b/top_250_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,14 +4221,46 @@
           <t>Red Velvet Happiness Diary : My Dear, ReVe1uv in Cinemas</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/red-velvet-happiness-diary-my-dear-reve1uv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ATEEZ WORLD TOUR [TOWARDS THE LIGHT : WILL TO POWER] IN CINEMAS</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>https://letterboxd.com/film/red-velvet-happiness-diary-my-dear-reve1uv/</t>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/ateez-world-tour-towards-the-light-will-to/</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Nyan~ Neko Sugar Girls</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/nyan-neko-sugar-girls/</t>
         </is>
       </c>
     </row>

--- a/top_250_data.xlsx
+++ b/top_250_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,10 +4236,8 @@
           <t>ATEEZ WORLD TOUR [TOWARDS THE LIGHT : WILL TO POWER] IN CINEMAS</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="B254" t="n">
+        <v>2025</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4253,14 +4251,29 @@
           <t>Nyan~ Neko Sugar Girls</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="B255" t="n">
+        <v>2010</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
           <t>https://letterboxd.com/film/nyan-neko-sugar-girls/</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Björk: Vespertine Live at the Royal Opera House</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/bjork-vespertine-live-at-the-royal-opera/</t>
         </is>
       </c>
     </row>

--- a/top_250_data.xlsx
+++ b/top_250_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,14 +4266,59 @@
           <t>Björk: Vespertine Live at the Royal Opera House</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="B256" t="n">
+        <v>2001</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
           <t>https://letterboxd.com/film/bjork-vespertine-live-at-the-royal-opera/</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Nyan~ Neko Sugar Girls</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/nyan-neko-sugar-girls-2010/</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Andor: A Disney+ Day Special Look</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/andor-a-disney-day-special-look/</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Vanisher, Horizon Scraper</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/vanisher-horizon-scraper/</t>
         </is>
       </c>
     </row>

--- a/top_250_data.xlsx
+++ b/top_250_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4311,14 +4311,29 @@
           <t>Vanisher, Horizon Scraper</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="B259" t="n">
+        <v>2025</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
           <t>https://letterboxd.com/film/vanisher-horizon-scraper/</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Fleetwood Mac: The Dance</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://letterboxd.com/film/fleetwood-mac-the-dance/</t>
         </is>
       </c>
     </row>
